--- a/Vishal Patel/WritetoEXCEL/Evaluation/lucenequeryID_/queryID_42_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/lucenequeryID_/queryID_42_evaluation.xlsx
@@ -384,7 +384,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision on x recall on y</c:v>
+            <c:v>Precision vs recall</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1016,6 +1016,7 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="true"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1026,6 +1027,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
@@ -1037,6 +1040,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="false"/>
+    </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>
   <c:printSettings>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/lucenequeryID_/queryID_42_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/lucenequeryID_/queryID_42_evaluation.xlsx
@@ -384,7 +384,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision vs recall</c:v>
+            <c:v>Precision vs recall
+Precision on X-Axis
+Recall on y-Axis</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1042,7 +1044,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
+      <c:overlay val="true"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/lucenequeryID_/queryID_42_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/lucenequeryID_/queryID_42_evaluation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Rank</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>CACM-1435</t>
+  </si>
+  <si>
+    <t>MAP is -&gt;0.2744109952988752</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:CZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2519,6 +2522,11 @@
         <v>0.38095238095238093</v>
       </c>
     </row>
+    <row r="102">
+      <c r="CY102" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
